--- a/biology/Botanique/Onopordum/Onopordum.xlsx
+++ b/biology/Botanique/Onopordum/Onopordum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onopordum est un genre de plante à fleurs de la famille des Asteraceae. Ce sont des plantes vivaces épineuses, à port de chardon. Certaines grandes espèces dont l'involucre présente peu de piquants font penser à l'artichaut, une plante qui fait partie du genre Cynara et dont la tige n'est pas couverte d'épines. 
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (14 juin 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (14 juin 2015) :
 Onopordum acanthium L. - Chardon aux ânes
 Onopordum acaulon L. - Onopordon à tige courte
 Onopordum dissectum Murb.
 Onopordum illyricum L. - Onopordon d'Illyrie
 Onopordum tauricum Willd.
-Selon The Plant List            (14 juin 2015)[2] :
+Selon The Plant List            (14 juin 2015) :
 Onopordum acanthium L.
 Onopordum acaulon L.
 Onopordum alexandrinum Boiss.
@@ -566,7 +580,43 @@
 Onopordum tauricum Willd.
 Onopordum turcicum Danin
 Onopordum wallianum Maire
-Illustations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Onopordum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onopordum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Illustations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Onopordum acanthium.
 			Onopordum acaulon subsp. acaulon.
 			Onopordum illyricum.
